--- a/medicine/Sexualité et sexologie/Kanamara_matsuri/Kanamara_matsuri.xlsx
+++ b/medicine/Sexualité et sexologie/Kanamara_matsuri/Kanamara_matsuri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Kanamara matsuri (かなまら祭り?, « fête de la verge de fer ») est une fête annuelle shinto de la fertilité, qui a lieu à Kawasaki au Japon chaque printemps.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Kanamara matsuri est une fête annuelle shinto qui a lieu à Kawasaki au Japon. Elle a pour centre le sanctuaire de Kanayama (金山神社, Kanayama-jinja?).
-Elle était célébrée à l’époque d'Edo (1600-1868), puis a été abandonnée, peut-être parce qu'interdite[1], plusieurs décennies. Elle a été réintroduite en 1977, et se déroule depuis chaque printemps, la festivité majeure ayant lieu le premier dimanche d'avril.
+Elle était célébrée à l’époque d'Edo (1600-1868), puis a été abandonnée, peut-être parce qu'interdite, plusieurs décennies. Elle a été réintroduite en 1977, et se déroule depuis chaque printemps, la festivité majeure ayant lieu le premier dimanche d'avril.
 Le thème central est la fertilité, autour du symbole du pénis — plus exactement un phallus, pénis en érection objet de culte —, qui est reproduit partout en image, sucre d'orge, légumes sculptés, décorations. Le sanctuaire de Kanayama était autrefois fréquenté par les prostituées qui venaient prier pour être protégées contre les maladies vénériennes. On peut y recevoir des bénédictions divines pour la prospérité des affaires, l'avenir du clan familial, le mariage, l'accouchement facile, et l'harmonie entre époux.
 Le défilé fait parader dans des mikoshi (temple mobile en bois promené par de nombreux porteurs) trois pénis conservés dans le sanctuaire :
 le pénis de bois dans le grand mikoshi, le plus ancien,
